--- a/Voters/voter reg record layout.xlsx
+++ b/Voters/voter reg record layout.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>VoterId</t>
   </si>
@@ -204,7 +204,10 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>REGISTRATIONDATETXT</t>
+    <t>%Y-%m-%d</t>
+  </si>
+  <si>
+    <t>stribimportdate=NOW()</t>
   </si>
 </sst>
 </file>
@@ -547,23 +550,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -593,7 +596,7 @@
     <col min="37" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -606,8 +609,20 @@
       <c r="E3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f>"@"&amp;TRIM(A3)</f>
+        <v>@VoterId</v>
+      </c>
+      <c r="G3" t="str">
+        <f>F3&amp;","</f>
+        <v>@VoterId,</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(H3="",TRIM(A3)&amp;"="&amp;TRIM(F3)&amp;",",TRIM(D3)&amp;"=STR_TO_DATE("&amp;TRIM(G3)&amp;" '"&amp;TRIM(H3)&amp;"'),")</f>
+        <v>VoterId=@VoterId,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -620,8 +635,20 @@
       <c r="E4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F43" si="0">"@"&amp;TRIM(A4)</f>
+        <v>@CountyCode</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G43" si="1">F4&amp;","</f>
+        <v>@CountyCode,</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I43" si="2">IF(H4="",TRIM(A4)&amp;"="&amp;TRIM(F4)&amp;",",TRIM(D4)&amp;"=STR_TO_DATE("&amp;TRIM(G4)&amp;" '"&amp;TRIM(H4)&amp;"'),")</f>
+        <v>CountyCode=@CountyCode,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -634,8 +661,20 @@
       <c r="E5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>@FirstName</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>@FirstName,</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>FirstName=@FirstName,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -648,8 +687,20 @@
       <c r="E6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>@MiddleName</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>@MiddleName,</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>MiddleName=@MiddleName,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -662,8 +713,20 @@
       <c r="E7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>@LastName</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>@LastName,</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>LastName=@LastName,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -676,8 +739,20 @@
       <c r="E8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>@NameSuffix</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>@NameSuffix,</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>NameSuffix=@NameSuffix,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -690,8 +765,20 @@
       <c r="E9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>@HouseNumber</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>@HouseNumber,</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>HouseNumber=@HouseNumber,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -704,8 +791,20 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>@StreetName</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>@StreetName,</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>StreetName=@StreetName,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -718,8 +817,20 @@
       <c r="E11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>@UnitType</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>@UnitType,</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>UnitType=@UnitType,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -732,8 +843,20 @@
       <c r="E12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>@UnitNumber</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>@UnitNumber,</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>UnitNumber=@UnitNumber,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -746,8 +869,20 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>@Address2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>@Address2,</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>Address2=@Address2,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -760,8 +895,20 @@
       <c r="E14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>@City</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>@City,</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>City=@City,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -774,8 +921,20 @@
       <c r="E15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>@State</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>@State,</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>State=@State,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -788,8 +947,20 @@
       <c r="E16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>@ZipCode</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>@ZipCode,</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>ZipCode=@ZipCode,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -802,8 +973,20 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>@MailAddress</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>@MailAddress,</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>MailAddress=@MailAddress,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -816,8 +999,20 @@
       <c r="E18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>@MailCity</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>@MailCity,</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>MailCity=@MailCity,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -830,8 +1025,20 @@
       <c r="E19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>@MailState</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>@MailState,</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>MailState=@MailState,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -844,8 +1051,20 @@
       <c r="E20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>@MailZipCode</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>@MailZipCode,</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>MailZipCode=@MailZipCode,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -858,16 +1077,43 @@
       <c r="E21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>@PhoneNumber</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>@PhoneNumber,</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>PhoneNumber=@PhoneNumber,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>@RegistrationDate</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>@RegistrationDate,</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>=STR_TO_DATE(@RegistrationDate, '%Y-%m-%d'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -880,8 +1126,20 @@
       <c r="E23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>@DOBYear</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>@DOBYear,</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>DOBYear=@DOBYear,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -894,8 +1152,20 @@
       <c r="E24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>@StateMcdCode</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>@StateMcdCode,</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>StateMcdCode=@StateMcdCode,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -908,8 +1178,20 @@
       <c r="E25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>@McdName</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>@McdName,</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>McdName=@McdName,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -922,8 +1204,20 @@
       <c r="E26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>@PrecinctCode</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>@PrecinctCode,</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>PrecinctCode=@PrecinctCode,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -936,8 +1230,20 @@
       <c r="E27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>@PrecinctName</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>@PrecinctName,</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>PrecinctName=@PrecinctName,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -950,8 +1256,20 @@
       <c r="E28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>@WardCode</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>@WardCode,</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>WardCode=@WardCode,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -964,8 +1282,20 @@
       <c r="E29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>@School</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>@School,</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>School=@School,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -978,8 +1308,20 @@
       <c r="E30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>@SchSub</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>@SchSub,</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>SchSub=@SchSub,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -992,8 +1334,20 @@
       <c r="E31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>@Judicial</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>@Judicial,</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>Judicial=@Judicial,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1006,8 +1360,20 @@
       <c r="E32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>@Legislative</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>@Legislative,</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>Legislative=@Legislative,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1020,8 +1386,20 @@
       <c r="E33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>@StateSen</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>@StateSen,</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>StateSen=@StateSen,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1034,8 +1412,20 @@
       <c r="E34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>@Congressional</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>@Congressional,</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>Congressional=@Congressional,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1048,8 +1438,20 @@
       <c r="E35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>@Commissioner</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>@Commissioner,</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>Commissioner=@Commissioner,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1062,8 +1464,20 @@
       <c r="E36">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>@Park</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>@Park,</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>Park=@Park,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1076,8 +1490,20 @@
       <c r="E37">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>@SoilWater</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>@SoilWater,</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>SoilWater=@SoilWater,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1090,8 +1516,20 @@
       <c r="E38">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>@Hospital</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>@Hospital,</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hospital=@Hospital,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1104,8 +1542,20 @@
       <c r="E39">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>@LegacyId</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>@LegacyId,</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>LegacyId=@LegacyId,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1121,8 +1571,12 @@
       <c r="E40">
         <v>255</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>@ADDRESS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1138,8 +1592,12 @@
       <c r="E41">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>@COUNTYNAME</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1149,22 +1607,16 @@
       <c r="D42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43">
-        <v>50</v>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>@STRIBIMPORTDATE</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>@STRIBIMPORTDATE,</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
